--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,6 +2851,67 @@
       </c>
       <c r="S39" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>106</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J40" t="n">
+        <v>111</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>94</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>18</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,24 +2952,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2917,11 +2978,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2930,11 +2991,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2943,37 +3004,37 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45311</v>
+        <v>45314</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45314</v>
+        <v>45316</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45316</v>
+        <v>45318</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2982,37 +3043,37 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45321</v>
+        <v>45323</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3021,11 +3082,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45323</v>
+        <v>45325</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3034,11 +3095,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3047,11 +3108,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3060,11 +3121,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3073,24 +3134,24 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3099,11 +3160,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3112,24 +3173,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3138,11 +3199,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3151,11 +3212,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3164,37 +3225,37 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3203,11 +3264,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3216,7 +3277,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3229,24 +3290,24 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3255,11 +3316,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3268,11 +3329,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3281,24 +3342,24 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3307,24 +3368,24 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3333,63 +3394,63 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3398,11 +3459,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3411,11 +3472,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3424,40 +3485,27 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,6 +2912,67 @@
       </c>
       <c r="S40" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94</v>
+      </c>
+      <c r="E41" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H41" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J41" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>98</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,11 +3013,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2965,11 +3026,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2978,11 +3039,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2991,37 +3052,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45311</v>
+        <v>45314</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45314</v>
+        <v>45316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45316</v>
+        <v>45318</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3030,37 +3091,37 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45321</v>
+        <v>45323</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3069,11 +3130,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45323</v>
+        <v>45325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3082,11 +3143,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3095,11 +3156,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3108,11 +3169,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3121,24 +3182,24 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3147,11 +3208,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3160,24 +3221,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3186,11 +3247,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3199,11 +3260,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3212,37 +3273,37 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3251,11 +3312,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3264,7 +3325,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3277,24 +3338,24 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3303,11 +3364,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3316,11 +3377,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3329,24 +3390,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3355,24 +3416,24 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3381,63 +3442,63 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3446,11 +3507,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3459,11 +3520,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3472,40 +3533,27 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2973,6 +2973,189 @@
       </c>
       <c r="S41" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>109</v>
+      </c>
+      <c r="E42" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11</v>
+      </c>
+      <c r="H42" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>94</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O42" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>113</v>
+      </c>
+      <c r="E43" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="G43" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="J43" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>109</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>126</v>
+      </c>
+      <c r="E44" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J44" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O44" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,24 +3196,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45308</v>
+        <v>45314</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3039,11 +3222,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45311</v>
+        <v>45318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3052,11 +3235,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45314</v>
+        <v>45320</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3065,11 +3248,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3078,11 +3261,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45318</v>
+        <v>45323</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3091,24 +3274,24 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45320</v>
+        <v>45325</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45321</v>
+        <v>45328</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3117,11 +3300,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45323</v>
+        <v>45330</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3130,11 +3313,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45325</v>
+        <v>45332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3143,89 +3326,89 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45332</v>
+        <v>45344</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45346</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45348</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45346</v>
+        <v>45351</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3234,24 +3417,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45349</v>
+        <v>45356</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3260,11 +3443,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45351</v>
+        <v>45359</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3273,24 +3456,24 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45354</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45356</v>
+        <v>45363</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3299,50 +3482,50 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45359</v>
+        <v>45365</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45361</v>
+        <v>45367</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45365</v>
+        <v>45372</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3351,37 +3534,37 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45367</v>
+        <v>45374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45372</v>
+        <v>45378</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3390,24 +3573,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45374</v>
+        <v>45380</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3416,11 +3599,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3429,37 +3612,37 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45380</v>
+        <v>45386</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45382</v>
+        <v>45387</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45384</v>
+        <v>45389</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3468,24 +3651,24 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45393</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3494,20 +3677,20 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389</v>
+        <v>45394</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45396</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3515,45 +3698,6 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3155,6 +3155,128 @@
         <v>1</v>
       </c>
       <c r="S44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>108</v>
+      </c>
+      <c r="E45" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="J45" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>103</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>111</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>122</v>
+      </c>
+      <c r="E46" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>84</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="N46" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>93</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,7 +3291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,37 +3318,37 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45316</v>
+        <v>45320</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45318</v>
+        <v>45321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3235,24 +3357,24 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45321</v>
+        <v>45325</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3261,11 +3383,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3274,11 +3396,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45325</v>
+        <v>45330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3287,11 +3409,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3300,37 +3422,37 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3339,37 +3461,37 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45336</v>
+        <v>45346</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45346</v>
+        <v>45349</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3378,11 +3500,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3391,24 +3513,24 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3417,24 +3539,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45354</v>
+        <v>45359</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45356</v>
+        <v>45361</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3443,11 +3565,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3456,37 +3578,37 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3495,11 +3617,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3508,76 +3630,76 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45369</v>
+        <v>45374</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3586,11 +3708,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3599,11 +3721,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3612,20 +3734,20 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3638,11 +3760,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,53 +3773,27 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3277,6 +3280,67 @@
         <v>1</v>
       </c>
       <c r="S46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J47" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>109</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3291,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,483 +3381,470 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45318</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45346</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45325</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45346</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45361</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>BRK</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45386</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45318</v>
       </c>
       <c r="C47" t="n">
@@ -3341,6 +3341,128 @@
         <v>1</v>
       </c>
       <c r="S47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>113</v>
+      </c>
+      <c r="E48" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J48" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>92</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13</v>
+      </c>
+      <c r="O48" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>118</v>
+      </c>
+      <c r="E49" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J49" t="n">
+        <v>132</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>103</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="N49" t="n">
+        <v>13</v>
+      </c>
+      <c r="O49" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,24 +3504,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45321</v>
+        <v>45325</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,11 +3530,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3421,11 +3543,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45325</v>
+        <v>45330</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3434,11 +3556,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3447,37 +3569,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3486,37 +3608,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45336</v>
+        <v>45346</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45346</v>
+        <v>45349</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3525,11 +3647,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3538,24 +3660,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3564,24 +3686,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45354</v>
+        <v>45359</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45356</v>
+        <v>45361</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3590,11 +3712,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3603,37 +3725,37 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3642,11 +3764,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3655,76 +3777,76 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45369</v>
+        <v>45374</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3733,11 +3855,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,11 +3868,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3759,20 +3881,20 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3785,11 +3907,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3798,53 +3920,27 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45321</v>
       </c>
       <c r="C49" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,6 +3463,67 @@
         <v>1</v>
       </c>
       <c r="S49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>109</v>
+      </c>
+      <c r="E50" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J50" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>105</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="N50" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>20</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>107</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,11 +3565,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45323</v>
+        <v>45325</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3517,11 +3578,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3530,11 +3591,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3543,11 +3604,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3556,24 +3617,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3582,11 +3643,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3595,24 +3656,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3621,11 +3682,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3634,11 +3695,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3647,37 +3708,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3686,11 +3747,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,7 +3760,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3712,24 +3773,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3738,11 +3799,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3751,11 +3812,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3764,24 +3825,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3790,24 +3851,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,63 +3877,63 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3881,11 +3942,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3894,11 +3955,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3907,40 +3968,27 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3525,6 +3525,67 @@
       </c>
       <c r="S50" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>105</v>
+      </c>
+      <c r="E51" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>34</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J51" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>113</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>123</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,11 +3626,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3578,11 +3639,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3591,11 +3652,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3604,24 +3665,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3630,11 +3691,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3643,24 +3704,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3669,11 +3730,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3682,11 +3743,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3695,37 +3756,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3734,11 +3795,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3747,7 +3808,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3760,24 +3821,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3786,11 +3847,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3799,11 +3860,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3812,24 +3873,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3838,24 +3899,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,63 +3925,63 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3929,11 +3990,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3942,11 +4003,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3955,40 +4016,27 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45325</v>
       </c>
       <c r="C51" t="n">
@@ -3586,6 +3586,67 @@
       </c>
       <c r="S51" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>123</v>
+      </c>
+      <c r="E52" t="n">
+        <v>95</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="J52" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>113</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="N52" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,11 +3687,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3639,11 +3700,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3652,24 +3713,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3678,11 +3739,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,24 +3752,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3717,11 +3778,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3730,11 +3791,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3743,37 +3804,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3782,11 +3843,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,7 +3856,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3808,24 +3869,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3834,11 +3895,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3847,11 +3908,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3860,24 +3921,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3886,24 +3947,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,63 +3973,63 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3977,11 +4038,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3990,11 +4051,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4003,40 +4064,27 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45328</v>
       </c>
       <c r="C52" t="n">
@@ -3647,6 +3647,67 @@
       </c>
       <c r="S52" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>108</v>
+      </c>
+      <c r="E53" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J53" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>122</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3748,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,24 +3761,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3726,11 +3787,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3739,24 +3800,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3765,11 +3826,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3778,11 +3839,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3791,37 +3852,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3830,11 +3891,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,7 +3904,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3856,24 +3917,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3882,11 +3943,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3895,11 +3956,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3908,24 +3969,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3934,24 +3995,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,63 +4021,63 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4025,11 +4086,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,11 +4099,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4051,40 +4112,27 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45330</v>
       </c>
       <c r="C53" t="n">
@@ -3707,6 +3707,67 @@
         <v>1</v>
       </c>
       <c r="S53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>111</v>
+      </c>
+      <c r="E54" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>114</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>125</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,24 +3809,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3774,11 +3835,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3787,24 +3848,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3813,11 +3874,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3826,11 +3887,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3839,37 +3900,37 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3878,11 +3939,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3891,7 +3952,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3904,24 +3965,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3930,11 +3991,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3943,11 +4004,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3956,24 +4017,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3982,24 +4043,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4008,63 +4069,63 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4073,11 +4134,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4086,11 +4147,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4099,40 +4160,27 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>1</v>
       </c>
       <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>103</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G55" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J55" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>105</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,11 +3870,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3822,11 +3883,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,24 +3896,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3861,11 +3922,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3874,11 +3935,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3887,37 +3948,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3926,11 +3987,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,7 +4000,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3952,24 +4013,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3978,11 +4039,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3991,11 +4052,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4004,24 +4065,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4030,24 +4091,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,63 +4117,63 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4121,11 +4182,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4134,11 +4195,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4147,40 +4208,27 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="J56" t="n">
+        <v>119</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>118</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>28</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,24 +3944,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3909,11 +3970,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3922,11 +3983,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3935,37 +3996,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3974,11 +4035,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,7 +4048,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4000,24 +4061,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4026,11 +4087,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4039,11 +4100,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4052,24 +4113,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4078,24 +4139,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,63 +4165,63 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4169,11 +4230,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4182,11 +4243,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4195,40 +4256,27 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,6 +3891,67 @@
       </c>
       <c r="S56" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>110</v>
+      </c>
+      <c r="E57" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="J57" t="n">
+        <v>115</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>96</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,24 +3992,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3957,11 +4018,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3970,11 +4031,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3983,37 +4044,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4022,11 +4083,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,7 +4096,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4048,24 +4109,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4074,11 +4135,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4087,11 +4148,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4100,24 +4161,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4126,24 +4187,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,63 +4213,63 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4217,11 +4278,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4230,11 +4291,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4243,40 +4304,27 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C57" t="n">
@@ -3952,6 +3952,67 @@
       </c>
       <c r="S57" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>102</v>
+      </c>
+      <c r="E58" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J58" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>116</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,11 +4053,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45346</v>
+        <v>45348</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4005,11 +4066,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4018,11 +4079,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4031,37 +4092,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4070,11 +4131,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,7 +4144,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4096,24 +4157,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4122,11 +4183,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4135,11 +4196,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4148,24 +4209,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4174,24 +4235,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,63 +4261,63 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4265,11 +4326,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4278,11 +4339,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4291,40 +4352,27 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -3958,7 +3958,7 @@
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45346</v>
       </c>
       <c r="C58" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4013,6 +4013,67 @@
       </c>
       <c r="S58" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>113</v>
+      </c>
+      <c r="E59" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J59" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>111</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O59" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,11 +4114,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4066,11 +4127,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4079,37 +4140,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4118,11 +4179,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,7 +4192,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4144,24 +4205,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4170,11 +4231,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4183,11 +4244,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4196,24 +4257,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4222,24 +4283,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,63 +4309,63 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4313,11 +4374,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4326,11 +4387,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4339,40 +4400,27 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45348</v>
       </c>
       <c r="C59" t="n">
@@ -4074,6 +4074,67 @@
       </c>
       <c r="S59" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>92</v>
+      </c>
+      <c r="E60" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="J60" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>115</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="N60" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="O60" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4175,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4127,37 +4188,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4166,11 +4227,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,7 +4240,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4192,24 +4253,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4218,11 +4279,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4231,11 +4292,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4244,24 +4305,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4270,24 +4331,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,63 +4357,63 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4361,11 +4422,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4374,11 +4435,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4387,40 +4448,27 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45349</v>
       </c>
       <c r="C60" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4134,6 +4134,67 @@
         <v>1</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>99</v>
+      </c>
+      <c r="E61" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="J61" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>110</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="N61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,37 +4236,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4214,11 +4275,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,7 +4288,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4240,24 +4301,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4266,11 +4327,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4279,11 +4340,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4292,24 +4353,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4318,24 +4379,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,63 +4405,63 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4409,11 +4470,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4422,11 +4483,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4435,40 +4496,27 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45351</v>
       </c>
       <c r="C61" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,6 +4196,67 @@
       </c>
       <c r="S61" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>107</v>
+      </c>
+      <c r="E62" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J62" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>98</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="N62" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,24 +4297,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4262,11 +4323,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,7 +4336,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4288,24 +4349,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4314,11 +4375,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4327,11 +4388,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4340,24 +4401,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4366,24 +4427,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,63 +4453,63 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4457,11 +4518,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4470,11 +4531,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4483,40 +4544,27 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45354</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,67 @@
       </c>
       <c r="S62" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J63" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>116</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="N63" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,11 +4358,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4310,11 +4371,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,7 +4384,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4336,24 +4397,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4362,11 +4423,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4375,11 +4436,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4388,24 +4449,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4414,24 +4475,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,63 +4501,63 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4505,11 +4566,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4518,11 +4579,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4531,40 +4592,27 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4318,6 +4318,67 @@
       </c>
       <c r="S63" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>98</v>
+      </c>
+      <c r="E64" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>74</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N64" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,7 +4432,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4384,24 +4445,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4410,11 +4471,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4423,11 +4484,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4436,24 +4497,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4462,24 +4523,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,63 +4549,63 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4553,11 +4614,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4566,11 +4627,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4579,40 +4640,27 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="C64" t="n">
@@ -4379,6 +4379,67 @@
       </c>
       <c r="S64" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>73</v>
+      </c>
+      <c r="E65" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G65" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H65" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>86</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>79</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="N65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>93</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,7 +4480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4432,24 +4493,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4458,11 +4519,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4471,11 +4532,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4484,24 +4545,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4510,24 +4571,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,63 +4597,63 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4601,11 +4662,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4614,11 +4675,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4627,40 +4688,27 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45361</v>
       </c>
       <c r="C65" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4440,6 +4440,67 @@
       </c>
       <c r="S65" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>106</v>
+      </c>
+      <c r="E66" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J66" t="n">
+        <v>123</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>79</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,24 +4541,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4506,11 +4567,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4519,11 +4580,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4532,24 +4593,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4558,24 +4619,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,63 +4645,63 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4649,11 +4710,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4662,11 +4723,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4675,40 +4736,27 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45363</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4500,6 +4500,67 @@
         <v>1</v>
       </c>
       <c r="S66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>105</v>
+      </c>
+      <c r="E67" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H67" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J67" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>93</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="O67" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,11 +4602,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4554,11 +4615,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4567,11 +4628,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4580,24 +4641,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4606,24 +4667,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,63 +4693,63 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4697,11 +4758,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4710,11 +4771,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4723,40 +4784,27 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45365</v>
       </c>
       <c r="C67" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4561,6 +4561,128 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>98</v>
+      </c>
+      <c r="E68" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J68" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>91</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="N68" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>119</v>
+      </c>
+      <c r="E69" t="n">
+        <v>93</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J69" t="n">
+        <v>128</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>112</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="N69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O69" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,7 +4697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,11 +4724,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4615,76 +4737,76 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45369</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4693,11 +4815,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,11 +4828,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4719,20 +4841,20 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4745,11 +4867,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4758,53 +4880,27 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C68" t="n">
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45369</v>
       </c>
       <c r="C69" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4684,6 +4684,67 @@
       </c>
       <c r="S69" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J70" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>113</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>25</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4697,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,24 +4785,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4750,24 +4811,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4776,63 +4837,63 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4841,11 +4902,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4854,11 +4915,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4867,40 +4928,27 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="C70" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4745,6 +4745,67 @@
       </c>
       <c r="S70" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>105</v>
+      </c>
+      <c r="E71" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J71" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>93</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="O71" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,11 +4846,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4798,24 +4859,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,63 +4885,63 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4889,11 +4950,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4902,11 +4963,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4915,40 +4976,27 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45374</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,67 @@
         <v>1</v>
       </c>
       <c r="S71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>124</v>
+      </c>
+      <c r="E72" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J72" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>99</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="O72" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,24 +4907,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,63 +4933,63 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4937,11 +4998,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4950,11 +5011,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4963,40 +5024,27 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/NYK.xlsx
+++ b/data/CurrentSeason/NYK.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4866,6 +4866,67 @@
         <v>1</v>
       </c>
       <c r="S72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>145</v>
+      </c>
+      <c r="E73" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J73" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>101</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N73" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="O73" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,63 +4981,63 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4985,11 +5046,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4998,11 +5059,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5011,40 +5072,27 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
